--- a/spliced/falling/2023-03-21_15-35-39/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-39/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.555334329605102</v>
+        <v>2.566667938232422</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.938729083538055</v>
+        <v>-3.378203916549682</v>
       </c>
       <c r="E2" t="n">
-        <v>3.47747951745987</v>
+        <v>3.007539582252503</v>
       </c>
       <c r="F2" t="n">
-        <v>1.519069194793701</v>
+        <v>-0.2000583708286285</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4518875777721405</v>
+        <v>-0.1212567538022995</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6734789609909058</v>
+        <v>-0.0207694191485643</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6493126988410929</v>
+        <v>3.106618106365205</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.875420850515366</v>
+        <v>-3.249815458059311</v>
       </c>
       <c r="E3" t="n">
-        <v>3.464587104320525</v>
+        <v>3.031012719869614</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2113593816757202</v>
+        <v>-0.1815796941518783</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3769038617610931</v>
+        <v>-0.0572686158120632</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4825835525989532</v>
+        <v>0.08643743395805351</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.6712930202484151</v>
+        <v>2.987140679359436</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.392556905746461</v>
+        <v>-3.142817544937134</v>
       </c>
       <c r="E4" t="n">
-        <v>2.365111112594603</v>
+        <v>3.183629143238068</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2393064647912979</v>
+        <v>-0.0739146918058395</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.8791878223419189</v>
+        <v>-0.1140790879726409</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1872301995754242</v>
+        <v>0.1067487001419067</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5537151455879301</v>
+        <v>2.434188187122345</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.361428594589236</v>
+        <v>-3.181812554597855</v>
       </c>
       <c r="E5" t="n">
-        <v>3.347476267814645</v>
+        <v>3.162444919347763</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1922698318958282</v>
+        <v>-0.0395535230636596</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9285151958465576</v>
+        <v>-0.0899499058723449</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8594874143600464</v>
+        <v>-0.0404698215425014</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.452674245834349</v>
+        <v>2.282221984863281</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.409869003295896</v>
+        <v>-3.265003252029419</v>
       </c>
       <c r="E6" t="n">
-        <v>5.084140586853025</v>
+        <v>3.094355344772339</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.570354700088501</v>
+        <v>-0.0148134818300604</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7802276611328125</v>
+        <v>0.1036943718791008</v>
       </c>
       <c r="H6" t="n">
-        <v>-4.989242076873779</v>
+        <v>-0.1157589629292488</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.681596696376824</v>
+        <v>2.110153055191039</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.525700151920317</v>
+        <v>-3.195758980512619</v>
       </c>
       <c r="E7" t="n">
-        <v>2.85166837722062</v>
+        <v>3.138975620269776</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.221577763557434</v>
+        <v>0.5971207618713379</v>
       </c>
       <c r="G7" t="n">
-        <v>2.375196695327759</v>
+        <v>1.289536476135254</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.503631114959717</v>
+        <v>-0.3637702465057373</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.737989616393984</v>
+        <v>1.555334329605102</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.796510410308835</v>
+        <v>-2.938729083538055</v>
       </c>
       <c r="E8" t="n">
-        <v>1.393881118297584</v>
+        <v>3.47747951745987</v>
       </c>
       <c r="F8" t="n">
-        <v>2.165364503860474</v>
+        <v>1.519069194793701</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5566509366035461</v>
+        <v>-0.4518875777721405</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4453207552433014</v>
+        <v>-0.6734789609909058</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.58917605876923</v>
+        <v>0.6493126988410929</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.849099040031435</v>
+        <v>-2.875420850515366</v>
       </c>
       <c r="E9" t="n">
-        <v>6.400659620761871</v>
+        <v>3.464587104320525</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2727513313293457</v>
+        <v>0.2113593816757202</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5925393104553223</v>
+        <v>-0.3769038617610931</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4948008358478546</v>
+        <v>0.4825835525989532</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.166972637176496</v>
+        <v>-0.6712930202484151</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.98566874265667</v>
+        <v>-3.392556905746461</v>
       </c>
       <c r="E10" t="n">
-        <v>9.183138275146462</v>
+        <v>2.365111112594603</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2121229618787765</v>
+        <v>0.2393064647912979</v>
       </c>
       <c r="G10" t="n">
-        <v>1.80510675907135</v>
+        <v>-0.8791878223419189</v>
       </c>
       <c r="H10" t="n">
-        <v>1.96942949295044</v>
+        <v>-0.1872301995754242</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1177038192748863</v>
+        <v>0.5537151455879301</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.770210593938835</v>
+        <v>-4.361428594589236</v>
       </c>
       <c r="E11" t="n">
-        <v>3.860614097118379</v>
+        <v>3.347476267814645</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2755002379417419</v>
+        <v>-0.1922698318958282</v>
       </c>
       <c r="G11" t="n">
-        <v>1.588096976280212</v>
+        <v>-0.9285151958465576</v>
       </c>
       <c r="H11" t="n">
-        <v>2.037540912628174</v>
+        <v>0.8594874143600464</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.127950906753536</v>
+        <v>2.452674245834349</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.12096252441406</v>
+        <v>-4.409869003295896</v>
       </c>
       <c r="E12" t="n">
-        <v>3.36216964721679</v>
+        <v>5.084140586853025</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8869763612747192</v>
+        <v>-3.570354700088501</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8231409192085266</v>
+        <v>-0.7802276611328125</v>
       </c>
       <c r="H12" t="n">
-        <v>1.362993121147156</v>
+        <v>-4.989242076873779</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.318384975194932</v>
+        <v>5.681596696376824</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.449181020259855</v>
+        <v>-3.525700151920317</v>
       </c>
       <c r="E13" t="n">
-        <v>1.645497059822083</v>
+        <v>2.85166837722062</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2379320114850998</v>
+        <v>-1.221577763557434</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.7533495426177979</v>
+        <v>2.375196695327759</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1786780804395675</v>
+        <v>-2.503631114959717</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.076034724712372</v>
+        <v>1.737989616393984</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.935223340988159</v>
+        <v>-2.796510410308835</v>
       </c>
       <c r="E14" t="n">
-        <v>1.488467574119568</v>
+        <v>1.393881118297584</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6151412725448608</v>
+        <v>2.165364503860474</v>
       </c>
       <c r="G14" t="n">
-        <v>1.230893492698669</v>
+        <v>0.5566509366035461</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3686571717262268</v>
+        <v>-0.4453207552433014</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.307219874858854</v>
+        <v>-5.58917605876923</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.422872281074523</v>
+        <v>-7.849099040031435</v>
       </c>
       <c r="E15" t="n">
-        <v>1.113696080446245</v>
+        <v>6.400659620761871</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1403462886810302</v>
+        <v>0.2727513313293457</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7915286421775818</v>
+        <v>0.5925393104553223</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00137444678694</v>
+        <v>0.4948008358478546</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.889325714111331</v>
+        <v>2.166972637176496</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.331348705291748</v>
+        <v>-11.98566874265667</v>
       </c>
       <c r="E16" t="n">
-        <v>1.212168788909908</v>
+        <v>9.183138275146462</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3019201457500458</v>
+        <v>-0.2121229618787765</v>
       </c>
       <c r="G16" t="n">
-        <v>0.041233405470848</v>
+        <v>1.80510675907135</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0345138870179653</v>
+        <v>1.96942949295044</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.565532350540161</v>
+        <v>-0.1177038192748863</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.527925431728365</v>
+        <v>-2.770210593938835</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07184810638427547</v>
+        <v>3.860614097118379</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1716531366109848</v>
+        <v>0.2755002379417419</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2657263875007629</v>
+        <v>1.588096976280212</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0448985956609249</v>
+        <v>2.037540912628174</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.525413262844082</v>
+        <v>3.127950906753536</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.978561615943909</v>
+        <v>-4.12096252441406</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2339930295944185</v>
+        <v>3.36216964721679</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2078468948602676</v>
+        <v>0.8869763612747192</v>
       </c>
       <c r="G18" t="n">
-        <v>0.078801617026329</v>
+        <v>0.8231409192085266</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.026419922709465</v>
+        <v>1.362993121147156</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.761336714029313</v>
+        <v>2.318384975194932</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.091410279273987</v>
+        <v>-3.449181020259855</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3938730955123901</v>
+        <v>1.645497059822083</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0473420582711696</v>
+        <v>0.2379320114850998</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0163406450301408</v>
+        <v>-0.7533495426177979</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0430659987032413</v>
+        <v>0.1786780804395675</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.025719761848449</v>
+        <v>3.076034724712372</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.884652662277222</v>
+        <v>-2.935223340988159</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07831997871398896</v>
+        <v>1.488467574119568</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0447458773851394</v>
+        <v>0.6151412725448608</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1368338167667389</v>
+        <v>1.230893492698669</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0710130855441093</v>
+        <v>-0.3686571717262268</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.922824805974961</v>
+        <v>4.307219874858854</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.91312141418457</v>
+        <v>-2.422872281074523</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03645527362823536</v>
+        <v>1.113696080446245</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0578794814646244</v>
+        <v>0.1403462886810302</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06536258012056349</v>
+        <v>0.7915286421775818</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0146607663482427</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>4.07339057922363</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-2.916565942764282</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1658158779144287</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0494800843298435</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0968221426010131</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.09865473955869671</v>
+        <v>0.00137444678694</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-35-39/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-39/data_selected.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.566667938232422</v>
+        <v>-0.6712930202484151</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.378203916549682</v>
+        <v>-3.392556905746461</v>
       </c>
       <c r="E2" t="n">
-        <v>3.007539582252503</v>
+        <v>2.365111112594603</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2000583708286285</v>
+        <v>0.2393064647912979</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1212567538022995</v>
+        <v>-0.8791878223419189</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0207694191485643</v>
+        <v>-0.1872301995754242</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.106618106365205</v>
+        <v>0.5537151455879301</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.249815458059311</v>
+        <v>-4.361428594589236</v>
       </c>
       <c r="E3" t="n">
-        <v>3.031012719869614</v>
+        <v>3.347476267814645</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1815796941518783</v>
+        <v>-0.1922698318958282</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0572686158120632</v>
+        <v>-0.9285151958465576</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08643743395805351</v>
+        <v>0.8594874143600464</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.987140679359436</v>
+        <v>2.452674245834349</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.142817544937134</v>
+        <v>-4.409869003295896</v>
       </c>
       <c r="E4" t="n">
-        <v>3.183629143238068</v>
+        <v>5.084140586853025</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0739146918058395</v>
+        <v>-3.570354700088501</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1140790879726409</v>
+        <v>-0.7802276611328125</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1067487001419067</v>
+        <v>-4.989242076873779</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.434188187122345</v>
+        <v>5.681596696376824</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.181812554597855</v>
+        <v>-3.525700151920317</v>
       </c>
       <c r="E5" t="n">
-        <v>3.162444919347763</v>
+        <v>2.85166837722062</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0395535230636596</v>
+        <v>-1.221577763557434</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0899499058723449</v>
+        <v>2.375196695327759</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0404698215425014</v>
+        <v>-2.503631114959717</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.282221984863281</v>
+        <v>1.737989616393984</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.265003252029419</v>
+        <v>-2.796510410308835</v>
       </c>
       <c r="E6" t="n">
-        <v>3.094355344772339</v>
+        <v>1.393881118297584</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0148134818300604</v>
+        <v>2.165364503860474</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1036943718791008</v>
+        <v>0.5566509366035461</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1157589629292488</v>
+        <v>-0.4453207552433014</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.110153055191039</v>
+        <v>-5.58917605876923</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.195758980512619</v>
+        <v>-7.849099040031435</v>
       </c>
       <c r="E7" t="n">
-        <v>3.138975620269776</v>
+        <v>6.400659620761871</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5971207618713379</v>
+        <v>0.2727513313293457</v>
       </c>
       <c r="G7" t="n">
-        <v>1.289536476135254</v>
+        <v>0.5925393104553223</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3637702465057373</v>
+        <v>0.4948008358478546</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.555334329605102</v>
+        <v>2.166972637176496</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.938729083538055</v>
+        <v>-11.98566874265667</v>
       </c>
       <c r="E8" t="n">
-        <v>3.47747951745987</v>
+        <v>9.183138275146462</v>
       </c>
       <c r="F8" t="n">
-        <v>1.519069194793701</v>
+        <v>-0.2121229618787765</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4518875777721405</v>
+        <v>1.80510675907135</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6734789609909058</v>
+        <v>1.96942949295044</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6493126988410929</v>
+        <v>-0.1177038192748863</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.875420850515366</v>
+        <v>-2.770210593938835</v>
       </c>
       <c r="E9" t="n">
-        <v>3.464587104320525</v>
+        <v>3.860614097118379</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2113593816757202</v>
+        <v>0.2755002379417419</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3769038617610931</v>
+        <v>1.588096976280212</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4825835525989532</v>
+        <v>2.037540912628174</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.6712930202484151</v>
+        <v>3.127950906753536</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.392556905746461</v>
+        <v>-4.12096252441406</v>
       </c>
       <c r="E10" t="n">
-        <v>2.365111112594603</v>
+        <v>3.36216964721679</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2393064647912979</v>
+        <v>0.8869763612747192</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.8791878223419189</v>
+        <v>0.8231409192085266</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1872301995754242</v>
+        <v>1.362993121147156</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5537151455879301</v>
+        <v>2.318384975194932</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.361428594589236</v>
+        <v>-3.449181020259855</v>
       </c>
       <c r="E11" t="n">
-        <v>3.347476267814645</v>
+        <v>1.645497059822083</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1922698318958282</v>
+        <v>0.2379320114850998</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.9285151958465576</v>
+        <v>-0.7533495426177979</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8594874143600464</v>
+        <v>0.1786780804395675</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.452674245834349</v>
+        <v>3.076034724712372</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.409869003295896</v>
+        <v>-2.935223340988159</v>
       </c>
       <c r="E12" t="n">
-        <v>5.084140586853025</v>
+        <v>1.488467574119568</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.570354700088501</v>
+        <v>0.6151412725448608</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7802276611328125</v>
+        <v>1.230893492698669</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.989242076873779</v>
+        <v>-0.3686571717262268</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.681596696376824</v>
+        <v>4.307219874858854</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.525700151920317</v>
+        <v>-2.422872281074523</v>
       </c>
       <c r="E13" t="n">
-        <v>2.85166837722062</v>
+        <v>1.113696080446245</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.221577763557434</v>
+        <v>0.1403462886810302</v>
       </c>
       <c r="G13" t="n">
-        <v>2.375196695327759</v>
+        <v>0.7915286421775818</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.503631114959717</v>
+        <v>0.00137444678694</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.737989616393984</v>
+        <v>3.889325714111331</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.796510410308835</v>
+        <v>-2.331348705291748</v>
       </c>
       <c r="E14" t="n">
-        <v>1.393881118297584</v>
+        <v>1.212168788909908</v>
       </c>
       <c r="F14" t="n">
-        <v>2.165364503860474</v>
+        <v>-0.3019201457500458</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5566509366035461</v>
+        <v>0.041233405470848</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.4453207552433014</v>
+        <v>-0.0345138870179653</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-5.58917605876923</v>
+        <v>4.565532350540161</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.849099040031435</v>
+        <v>-2.527925431728365</v>
       </c>
       <c r="E15" t="n">
-        <v>6.400659620761871</v>
+        <v>0.07184810638427547</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2727513313293457</v>
+        <v>-0.1716531366109848</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5925393104553223</v>
+        <v>-0.2657263875007629</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4948008358478546</v>
+        <v>-0.0448985956609249</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.166972637176496</v>
+        <v>4.525413262844082</v>
       </c>
       <c r="D16" t="n">
-        <v>-11.98566874265667</v>
+        <v>-2.978561615943909</v>
       </c>
       <c r="E16" t="n">
-        <v>9.183138275146462</v>
+        <v>-0.2339930295944185</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2121229618787765</v>
+        <v>-0.2078468948602676</v>
       </c>
       <c r="G16" t="n">
-        <v>1.80510675907135</v>
+        <v>0.078801617026329</v>
       </c>
       <c r="H16" t="n">
-        <v>1.96942949295044</v>
+        <v>-0.026419922709465</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.1177038192748863</v>
+        <v>3.761336714029313</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.770210593938835</v>
+        <v>-3.091410279273987</v>
       </c>
       <c r="E17" t="n">
-        <v>3.860614097118379</v>
+        <v>0.3938730955123901</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2755002379417419</v>
+        <v>0.0473420582711696</v>
       </c>
       <c r="G17" t="n">
-        <v>1.588096976280212</v>
+        <v>-0.0163406450301408</v>
       </c>
       <c r="H17" t="n">
-        <v>2.037540912628174</v>
+        <v>0.0430659987032413</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.127950906753536</v>
+        <v>4.025719761848449</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.12096252441406</v>
+        <v>-2.884652662277222</v>
       </c>
       <c r="E18" t="n">
-        <v>3.36216964721679</v>
+        <v>0.07831997871398896</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8869763612747192</v>
+        <v>-0.0447458773851394</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8231409192085266</v>
+        <v>0.1368338167667389</v>
       </c>
       <c r="H18" t="n">
-        <v>1.362993121147156</v>
+        <v>-0.0710130855441093</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.318384975194932</v>
+        <v>3.922824805974961</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.449181020259855</v>
+        <v>-2.91312141418457</v>
       </c>
       <c r="E19" t="n">
-        <v>1.645497059822083</v>
+        <v>0.03645527362823536</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2379320114850998</v>
+        <v>0.0578794814646244</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.7533495426177979</v>
+        <v>0.06536258012056349</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1786780804395675</v>
+        <v>-0.0146607663482427</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.076034724712372</v>
+        <v>4.07339057922363</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.935223340988159</v>
+        <v>-2.916565942764282</v>
       </c>
       <c r="E20" t="n">
-        <v>1.488467574119568</v>
+        <v>0.1658158779144287</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6151412725448608</v>
+        <v>-0.0494800843298435</v>
       </c>
       <c r="G20" t="n">
-        <v>1.230893492698669</v>
+        <v>0.0968221426010131</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.3686571717262268</v>
+        <v>0.09865473955869671</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4.307219874858854</v>
+        <v>3.406079268455506</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.422872281074523</v>
+        <v>-2.918866038322449</v>
       </c>
       <c r="E21" t="n">
-        <v>1.113696080446245</v>
+        <v>0.1608816981315587</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1403462886810302</v>
+        <v>-0.08109235763549801</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7915286421775818</v>
+        <v>0.040775254368782</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00137444678694</v>
+        <v>0.0303905457258224</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-35-39/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-39/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.6712930202484151</v>
+        <v>5.212075734138489</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.392556905746461</v>
+        <v>-2.939898788928986</v>
       </c>
       <c r="E2" t="n">
-        <v>2.365111112594603</v>
+        <v>1.854160755872726</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2393064647912979</v>
+        <v>-0.6933320760726929</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8791878223419189</v>
+        <v>1.070083141326904</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1872301995754242</v>
+        <v>-0.4738787114620209</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5537151455879301</v>
+        <v>3.245875406265258</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.361428594589236</v>
+        <v>-4.094250345230103</v>
       </c>
       <c r="E3" t="n">
-        <v>3.347476267814645</v>
+        <v>2.58136396408081</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1922698318958282</v>
+        <v>-0.694248378276825</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9285151958465576</v>
+        <v>0.7021896243095398</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8594874143600464</v>
+        <v>-0.1614211350679397</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.452674245834349</v>
+        <v>3.096780717372894</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.409869003295896</v>
+        <v>-3.371150910854339</v>
       </c>
       <c r="E4" t="n">
-        <v>5.084140586853025</v>
+        <v>2.613386332988739</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.570354700088501</v>
+        <v>0.1959350258111953</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.7802276611328125</v>
+        <v>0.2964223623275757</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.989242076873779</v>
+        <v>-0.2142609804868698</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.681596696376824</v>
+        <v>2.924881196022033</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.525700151920317</v>
+        <v>-2.50173692703247</v>
       </c>
       <c r="E5" t="n">
-        <v>2.85166837722062</v>
+        <v>2.383840799331665</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.221577763557434</v>
+        <v>0.4120286107063293</v>
       </c>
       <c r="G5" t="n">
-        <v>2.375196695327759</v>
+        <v>-0.2721404731273651</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.503631114959717</v>
+        <v>-0.3208569586277008</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.737989616393984</v>
+        <v>3.458236134052277</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.796510410308835</v>
+        <v>-2.494953083992004</v>
       </c>
       <c r="E6" t="n">
-        <v>1.393881118297584</v>
+        <v>2.681476718187333</v>
       </c>
       <c r="F6" t="n">
-        <v>2.165364503860474</v>
+        <v>0.1794416606426239</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5566509366035461</v>
+        <v>0.0216857157647609</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4453207552433014</v>
+        <v>-0.3880521357059479</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-5.58917605876923</v>
+        <v>2.869051647186279</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.849099040031435</v>
+        <v>-3.347217082977296</v>
       </c>
       <c r="E7" t="n">
-        <v>6.400659620761871</v>
+        <v>2.930787801742554</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2727513313293457</v>
+        <v>-0.1267545372247696</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5925393104553223</v>
+        <v>-0.0375682115554809</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4948008358478546</v>
+        <v>-0.1798998117446899</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.166972637176496</v>
+        <v>2.807376968860626</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.98566874265667</v>
+        <v>-3.875039219856262</v>
       </c>
       <c r="E8" t="n">
-        <v>9.183138275146462</v>
+        <v>3.420289939641953</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2121229618787765</v>
+        <v>-0.0123700210824608</v>
       </c>
       <c r="G8" t="n">
-        <v>1.80510675907135</v>
+        <v>0.0419969856739044</v>
       </c>
       <c r="H8" t="n">
-        <v>1.96942949295044</v>
+        <v>0.271224170923233</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1177038192748863</v>
+        <v>2.295876741409302</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.770210593938835</v>
+        <v>-4.034408569335938</v>
       </c>
       <c r="E9" t="n">
-        <v>3.860614097118379</v>
+        <v>3.253981232643127</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2755002379417419</v>
+        <v>-0.0514653958380222</v>
       </c>
       <c r="G9" t="n">
-        <v>1.588096976280212</v>
+        <v>-0.052381694316864</v>
       </c>
       <c r="H9" t="n">
-        <v>2.037540912628174</v>
+        <v>0.3119994103908539</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.127950906753536</v>
+        <v>2.279258108139039</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.12096252441406</v>
+        <v>-3.775099605321884</v>
       </c>
       <c r="E10" t="n">
-        <v>3.36216964721679</v>
+        <v>3.11082683801651</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8869763612747192</v>
+        <v>-0.1554652005434036</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8231409192085266</v>
+        <v>-0.0441350154578685</v>
       </c>
       <c r="H10" t="n">
-        <v>1.362993121147156</v>
+        <v>-0.0074830991216003</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.318384975194932</v>
+        <v>2.566667938232422</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.449181020259855</v>
+        <v>-3.378203916549682</v>
       </c>
       <c r="E11" t="n">
-        <v>1.645497059822083</v>
+        <v>3.007539582252503</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2379320114850998</v>
+        <v>-0.2000583708286285</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.7533495426177979</v>
+        <v>-0.1212567538022995</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1786780804395675</v>
+        <v>-0.0207694191485643</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.076034724712372</v>
+        <v>3.106618106365205</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.935223340988159</v>
+        <v>-3.249815458059311</v>
       </c>
       <c r="E12" t="n">
-        <v>1.488467574119568</v>
+        <v>3.031012719869614</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6151412725448608</v>
+        <v>-0.1815796941518783</v>
       </c>
       <c r="G12" t="n">
-        <v>1.230893492698669</v>
+        <v>-0.0572686158120632</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.3686571717262268</v>
+        <v>0.08643743395805351</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.307219874858854</v>
+        <v>2.987140679359436</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.422872281074523</v>
+        <v>-3.142817544937134</v>
       </c>
       <c r="E13" t="n">
-        <v>1.113696080446245</v>
+        <v>3.183629143238068</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1403462886810302</v>
+        <v>-0.0739146918058395</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7915286421775818</v>
+        <v>-0.1140790879726409</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00137444678694</v>
+        <v>0.1067487001419067</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.889325714111331</v>
+        <v>2.434188187122345</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.331348705291748</v>
+        <v>-3.181812554597855</v>
       </c>
       <c r="E14" t="n">
-        <v>1.212168788909908</v>
+        <v>3.162444919347763</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3019201457500458</v>
+        <v>-0.0395535230636596</v>
       </c>
       <c r="G14" t="n">
-        <v>0.041233405470848</v>
+        <v>-0.0899499058723449</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0345138870179653</v>
+        <v>-0.0404698215425014</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.565532350540161</v>
+        <v>2.282221984863281</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.527925431728365</v>
+        <v>-3.265003252029419</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07184810638427547</v>
+        <v>3.094355344772339</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1716531366109848</v>
+        <v>-0.0148134818300604</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2657263875007629</v>
+        <v>0.1036943718791008</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0448985956609249</v>
+        <v>-0.1157589629292488</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.525413262844082</v>
+        <v>2.110153055191039</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.978561615943909</v>
+        <v>-3.195758980512619</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2339930295944185</v>
+        <v>3.138975620269776</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2078468948602676</v>
+        <v>0.5971207618713379</v>
       </c>
       <c r="G16" t="n">
-        <v>0.078801617026329</v>
+        <v>1.289536476135254</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.026419922709465</v>
+        <v>-0.3637702465057373</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.761336714029313</v>
+        <v>1.555334329605102</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.091410279273987</v>
+        <v>-2.938729083538055</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3938730955123901</v>
+        <v>3.47747951745987</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0473420582711696</v>
+        <v>1.519069194793701</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0163406450301408</v>
+        <v>-0.4518875777721405</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0430659987032413</v>
+        <v>-0.6734789609909058</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.025719761848449</v>
+        <v>0.6493126988410929</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.884652662277222</v>
+        <v>-2.875420850515366</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07831997871398896</v>
+        <v>3.464587104320525</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0447458773851394</v>
+        <v>0.2113593816757202</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1368338167667389</v>
+        <v>-0.3769038617610931</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0710130855441093</v>
+        <v>0.4825835525989532</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.922824805974961</v>
+        <v>-0.6712930202484151</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.91312141418457</v>
+        <v>-3.392556905746461</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03645527362823536</v>
+        <v>2.365111112594603</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0578794814646244</v>
+        <v>0.2393064647912979</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06536258012056349</v>
+        <v>-0.8791878223419189</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0146607663482427</v>
+        <v>-0.1872301995754242</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.07339057922363</v>
+        <v>0.5537151455879301</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.916565942764282</v>
+        <v>-4.361428594589236</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1658158779144287</v>
+        <v>3.347476267814645</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0494800843298435</v>
+        <v>-0.1922698318958282</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0968221426010131</v>
+        <v>-0.9285151958465576</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09865473955869671</v>
+        <v>0.8594874143600464</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.406079268455506</v>
+        <v>2.452674245834349</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.918866038322449</v>
+        <v>-4.409869003295896</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1608816981315587</v>
+        <v>5.084140586853025</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.08109235763549801</v>
+        <v>-3.570354700088501</v>
       </c>
       <c r="G21" t="n">
-        <v>0.040775254368782</v>
+        <v>-0.7802276611328125</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0303905457258224</v>
+        <v>-4.989242076873779</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5.681596696376824</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.525700151920317</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.85166837722062</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.221577763557434</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.375196695327759</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-2.503631114959717</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.737989616393984</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2.796510410308835</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.393881118297584</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.165364503860474</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5566509366035461</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.4453207552433014</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-5.58917605876923</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-7.849099040031435</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6.400659620761871</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2727513313293457</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5925393104553223</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4948008358478546</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2.166972637176496</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-11.98566874265667</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9.183138275146462</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.2121229618787765</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.80510675907135</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.96942949295044</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1177038192748863</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.770210593938835</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.860614097118379</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2755002379417419</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.588096976280212</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.037540912628174</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3.127950906753536</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-4.12096252441406</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.36216964721679</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8869763612747192</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8231409192085266</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.362993121147156</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.318384975194932</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-3.449181020259855</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.645497059822083</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2379320114850998</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.7533495426177979</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1786780804395675</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3.076034724712372</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-2.935223340988159</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.488467574119568</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6151412725448608</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.230893492698669</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.3686571717262268</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4.307219874858854</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-2.422872281074523</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.113696080446245</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1403462886810302</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7915286421775818</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.00137444678694</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3.889325714111331</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-2.331348705291748</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.212168788909908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.3019201457500458</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.041233405470848</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0345138870179653</v>
       </c>
     </row>
   </sheetData>
